--- a/data/trans_orig/IP12BS04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP12BS04-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{330AB263-CD8C-45F5-9413-46C7D1A5F9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83370F22-92A1-4BC2-B65C-138E4A34DBE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{C6D642FE-7A51-403C-BFD6-BAA133C15E77}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{66930B40-6239-4644-962C-F896FDD60910}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -65,34 +65,34 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Vómitos</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>Vómitos</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
   </si>
   <si>
     <t>Capitales</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
   </si>
 </sst>
 </file>
@@ -484,7 +484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{010A4629-7AAC-4708-B93C-6EF9ECE02201}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A0E225-F92C-474A-ADD3-C85B0FA5894D}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -891,30 +891,34 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>627</v>
+      </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>627</v>
+      </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -936,35 +940,39 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>627</v>
+      </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N11" s="7">
+        <v>627</v>
+      </c>
       <c r="O11" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -983,34 +991,30 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>627</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>1</v>
-      </c>
-      <c r="N12" s="7">
-        <v>627</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1032,34 +1036,30 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>627</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
-      </c>
-      <c r="N13" s="7">
-        <v>627</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1089,13 +1089,13 @@
         <v>627</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -1104,13 +1104,13 @@
         <v>627</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1138,13 +1138,13 @@
         <v>627</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -1153,13 +1153,13 @@
         <v>627</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP12BS04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP12BS04-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83370F22-92A1-4BC2-B65C-138E4A34DBE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5F89A98-526C-4BCE-87AF-4BC4DA8D2403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{66930B40-6239-4644-962C-F896FDD60910}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F68D1E36-5B39-48B5-BE38-5B68CCD3DBE9}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="20">
   <si>
     <t>Menores según el tipo de dolor sufrido que le limita 4 en 2012 (Tasa respuesta: 0,05%)</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Capitales</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -103,7 +106,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -199,39 +202,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -283,7 +286,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -394,13 +397,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -409,6 +405,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -473,19 +476,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A0E225-F92C-474A-ADD3-C85B0FA5894D}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40004C80-8D39-45C3-B431-905A64154165}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1162,6 +1185,11 @@
         <v>17</v>
       </c>
     </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A8:A9"/>

--- a/data/trans_orig/IP12BS04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP12BS04-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5F89A98-526C-4BCE-87AF-4BC4DA8D2403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88449388-87CC-4CEE-964E-B12829A5170A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F68D1E36-5B39-48B5-BE38-5B68CCD3DBE9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2E622054-F2BF-47B8-B477-6445033C9F17}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Vómitos</t>
@@ -74,13 +74,13 @@
     <t>—%</t>
   </si>
   <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -507,7 +507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40004C80-8D39-45C3-B431-905A64154165}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF883499-1C4E-4B34-B5AB-EA61F154C1D5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
